--- a/NformTester/NformTester/keywordscripts/TST1336_ShowExpandedTopFrameAndShowExpendedBottomFrame.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1336_ShowExpandedTopFrameAndShowExpendedBottomFrame.xlsx
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7219" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7261" uniqueCount="842">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3732,33 +3732,53 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Can not handle that:</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>Add more than 999 devices and make sure they are in one of the three states.</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can not verify that if the Top Frame is collapsed or not, because the size of the components </t>
+  </si>
+  <si>
+    <t>can not be verified by ranorex.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top Frame should be collapsed and size of all the three Status Buttons ‘No communication’, ‘Normal’ and ‘Alarm’ should be reduced and these should be placed at right top corner. </t>
+  </si>
+  <si>
+    <t>Sashimi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>C</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Can not handle that:</t>
-  </si>
-  <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t>Add more than 999 devices and make sure they are in one of the three states.</t>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We can not verify that if the Top Frame is collapsed or not, because the size of the components </t>
-  </si>
-  <si>
-    <t>can not be verified by ranorex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top Frame should be collapsed and size of all the three Status Buttons ‘No communication’, ‘Normal’ and ‘Alarm’ should be reduced and these should be placed at right top corner. </t>
-  </si>
-  <si>
-    <t>Sashimi</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>Pause</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4741,9 +4761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4832,7 +4854,7 @@
         <v>755</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4948,7 +4970,7 @@
         <v>760</v>
       </c>
       <c r="B7" s="3">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -4983,7 +5005,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>76</v>
+        <v>836</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>2</v>
@@ -5165,7 +5187,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>76</v>
+        <v>836</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>2</v>
@@ -5279,17 +5301,15 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>798</v>
+        <v>837</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="14"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -5316,17 +5336,13 @@
         <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I19" s="14" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -5349,13 +5365,13 @@
         <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -5378,13 +5394,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>72</v>
+        <v>839</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -5405,18 +5421,22 @@
         <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I22" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="17"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15">
@@ -5435,19 +5455,15 @@
         <v>72</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I23" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="17"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="12"/>
     </row>
     <row r="24" spans="1:15">
@@ -5457,19 +5473,17 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>798</v>
+        <v>837</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+        <v>838</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -5490,7 +5504,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>72</v>
+        <v>836</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>2</v>
@@ -5501,10 +5515,10 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="13"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="4">
@@ -5517,13 +5531,17 @@
         <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I26" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -5538,62 +5556,68 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>798</v>
+        <v>841</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I27" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="17"/>
+      <c r="N27" s="13"/>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="1:15" ht="15">
+    <row r="28" spans="1:15">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="4">
         <v>27</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>810</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="D28" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="19"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:15" ht="15">
+    <row r="29" spans="1:15">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="4">
         <v>28</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>811</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -5601,10 +5625,10 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="19"/>
+      <c r="N29" s="13"/>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="14.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="4">
@@ -5617,18 +5641,18 @@
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>76</v>
+        <v>836</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="13"/>
+      <c r="N30" s="17"/>
       <c r="O30" s="12"/>
     </row>
     <row r="31" spans="1:15">
@@ -5644,7 +5668,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>7</v>
@@ -5652,40 +5676,34 @@
       <c r="H31" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="I31" s="14" t="b">
+      <c r="I31" s="4" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="13"/>
+      <c r="N31" s="17"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="15">
       <c r="A32" s="12"/>
       <c r="C32" s="4">
         <v>31</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="D32" s="16" t="s">
+        <v>810</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="13"/>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" spans="1:15" ht="15">
       <c r="A33" s="12"/>
@@ -5693,13 +5711,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -5712,41 +5730,49 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="19"/>
+      <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:15" ht="15">
+    <row r="35" spans="1:15">
       <c r="A35" s="12"/>
       <c r="C35" s="4">
         <v>34</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>812</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="14"/>
+      <c r="D35" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H35" s="14"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="19"/>
+      <c r="N35" s="13"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="12"/>
@@ -5760,7 +5786,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>76</v>
+        <v>836</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>2</v>
@@ -5794,7 +5820,7 @@
         <v>806</v>
       </c>
       <c r="I37" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5814,42 +5840,32 @@
         <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I38" s="14" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="15">
       <c r="A39" s="12"/>
       <c r="C39" s="4">
         <v>38</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D39" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="14"/>
-      <c r="I39" s="4"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -5862,19 +5878,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4"/>
       <c r="H40" s="14"/>
-      <c r="I40" s="4"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -5887,12 +5901,12 @@
         <v>40</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -5906,41 +5920,49 @@
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="19"/>
+      <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:15" ht="15">
+    <row r="43" spans="1:15">
       <c r="A43" s="12"/>
       <c r="C43" s="4">
         <v>42</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>817</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="D43" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
+      <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="19"/>
+      <c r="N43" s="13"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="12"/>
@@ -5954,7 +5976,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>76</v>
+        <v>836</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>2</v>
@@ -5988,7 +6010,7 @@
         <v>806</v>
       </c>
       <c r="I45" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -6018,7 +6040,7 @@
         <v>806</v>
       </c>
       <c r="I46" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -6054,18 +6076,24 @@
       <c r="N47" s="19"/>
       <c r="O47" s="12"/>
     </row>
-    <row r="48" spans="1:15" ht="15">
+    <row r="48" spans="1:15">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="4">
         <v>47</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>818</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="D48" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H48" s="14"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -6075,40 +6103,40 @@
       <c r="N48" s="19"/>
       <c r="O48" s="12"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" ht="15">
       <c r="A49" s="12"/>
       <c r="C49" s="4">
         <v>48</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
+      <c r="D49" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="19"/>
     </row>
-    <row r="50" spans="1:15" ht="15">
+    <row r="50" spans="1:15">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="4">
         <v>49</v>
       </c>
-      <c r="D50" s="16" t="s">
-        <v>819</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="4"/>
+      <c r="D50" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
       <c r="G50" s="4"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -6119,20 +6147,16 @@
       <c r="N50" s="19"/>
       <c r="O50" s="12"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" ht="15">
       <c r="A51" s="12"/>
       <c r="C51" s="4">
         <v>50</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
+      <c r="D51" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -6142,25 +6166,31 @@
       <c r="M51" s="4"/>
       <c r="N51" s="19"/>
     </row>
-    <row r="52" spans="1:15" ht="15">
+    <row r="52" spans="1:15">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="4">
         <v>51</v>
       </c>
-      <c r="D52" s="16" t="s">
-        <v>820</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="D52" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H52" s="14"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="19"/>
+      <c r="N52" s="13"/>
       <c r="O52" s="12"/>
     </row>
     <row r="53" spans="1:15">
@@ -6169,42 +6199,50 @@
         <v>52</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1</v>
-      </c>
-      <c r="G53" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
+      <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="19"/>
+      <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:15" ht="15">
+    <row r="54" spans="1:15">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="4">
         <v>53</v>
       </c>
-      <c r="D54" s="16" t="s">
-        <v>821</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="D54" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H54" s="14"/>
-      <c r="I54" s="4"/>
+      <c r="I54" s="14"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="19"/>
+      <c r="N54" s="13"/>
       <c r="O54" s="12"/>
     </row>
     <row r="55" spans="1:15">
@@ -6220,13 +6258,17 @@
         <v>19</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I55" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -6247,7 +6289,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>7</v>
@@ -6276,39 +6318,29 @@
         <v>19</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I57" s="14" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="13"/>
+      <c r="N57" s="19"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" ht="15">
       <c r="C58" s="4">
         <v>57</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D58" s="16" t="s">
+        <v>818</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
       <c r="H58" s="14"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -6322,19 +6354,17 @@
         <v>58</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4"/>
       <c r="H59" s="14"/>
-      <c r="I59" s="4"/>
+      <c r="I59" s="14"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -6346,14 +6376,14 @@
         <v>59</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="14"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -6387,7 +6417,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="4"/>
@@ -6405,68 +6435,66 @@
         <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="F63" s="4"/>
+        <v>815</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
       <c r="G63" s="4"/>
-      <c r="H63" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>825</v>
-      </c>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="20"/>
+      <c r="N63" s="19"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" ht="15">
       <c r="C64" s="4">
         <v>63</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>823</v>
-      </c>
+      <c r="D64" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="E64" s="14"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>826</v>
-      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="20"/>
+      <c r="N64" s="19"/>
     </row>
-    <row r="65" spans="1:15" ht="15">
+    <row r="65" spans="1:15">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="4">
         <v>64</v>
       </c>
-      <c r="D65" s="16" t="s">
-        <v>805</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="D65" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H65" s="14"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="19"/>
+      <c r="N65" s="13"/>
       <c r="O65" s="12"/>
     </row>
     <row r="66" spans="1:15">
@@ -6476,32 +6504,44 @@
         <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="F66" s="4">
-        <v>1</v>
-      </c>
-      <c r="G66" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H66" s="14"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="19"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="12"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="C67" s="4">
+        <v>66</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="4"/>
@@ -6512,13 +6552,27 @@
       <c r="O67" s="12"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="C68" s="4"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
+      <c r="C68" s="4">
+        <v>67</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I68" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -6526,78 +6580,342 @@
       <c r="N68" s="13"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="C69" s="4"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="4"/>
+      <c r="C69" s="4">
+        <v>68</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I69" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="20"/>
+      <c r="N69" s="13"/>
     </row>
-    <row r="70" spans="1:15" ht="14.25">
-      <c r="C70" s="4"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="18"/>
+    <row r="70" spans="1:15">
+      <c r="C70" s="4">
+        <v>69</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="14"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="20"/>
+      <c r="N70" s="19"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="C71" s="4"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+      <c r="C71" s="4">
+        <v>70</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H71" s="14"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="20"/>
+      <c r="N71" s="19"/>
     </row>
-    <row r="72" spans="1:15">
-      <c r="C72" s="4"/>
-      <c r="D72" s="5"/>
+    <row r="72" spans="1:15" ht="15">
+      <c r="C72" s="4">
+        <v>71</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>822</v>
+      </c>
       <c r="E72" s="14"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="14"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="13"/>
+      <c r="N72" s="19"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="C73" s="4"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="4"/>
+      <c r="C73" s="4">
+        <v>72</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="F73" s="4">
+        <v>5</v>
+      </c>
       <c r="G73" s="4"/>
       <c r="H73" s="14"/>
-      <c r="I73" s="4"/>
+      <c r="I73" s="14"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="19"/>
     </row>
+    <row r="74" spans="1:15" ht="15">
+      <c r="C74" s="4">
+        <v>73</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="19"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="C75" s="4">
+        <v>74</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="20"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="C76" s="4">
+        <v>75</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="20"/>
+    </row>
+    <row r="77" spans="1:15" ht="15">
+      <c r="C77" s="4">
+        <v>76</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="19"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="C78" s="4">
+        <v>77</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="19"/>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="C79" s="4">
+        <v>78</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="13"/>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="C80" s="4">
+        <v>79</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="13"/>
+    </row>
+    <row r="81" spans="3:14">
+      <c r="C81" s="4">
+        <v>80</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="20"/>
+    </row>
+    <row r="82" spans="3:14" ht="14.25">
+      <c r="C82" s="4">
+        <v>81</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="20"/>
+    </row>
+    <row r="83" spans="3:14">
+      <c r="C83" s="4">
+        <v>82</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="20"/>
+    </row>
+    <row r="84" spans="3:14">
+      <c r="C84" s="4">
+        <v>83</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="13"/>
+    </row>
+    <row r="85" spans="3:14">
+      <c r="C85" s="4">
+        <v>84</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="19"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N73">
+  <conditionalFormatting sqref="N2:N85">
     <cfRule type="cellIs" dxfId="1" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6606,17 +6924,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D78:D80 D65:D71 D52:D57 D34:D38 D42:D48 D3:D4 D8:D31">
+      <formula1>"C,F,T,;"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E77:E85 E2:E74">
+      <formula1>Forms</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G85">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F85">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D66:D68 D55:D59 D44:D47 D8:D27 D3:D4 D30:D32 D36:D40">
-      <formula1>"C,F,T,;"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E62 E65:E73">
-      <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28020,37 +28338,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST1336_ShowExpandedTopFrameAndShowExpendedBottomFrame.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1336_ShowExpandedTopFrameAndShowExpendedBottomFrame.xlsx
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7261" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7318" uniqueCount="844">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3682,10 +3682,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Pause</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3761,15 +3757,26 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Pause</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>View</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4761,10 +4768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4854,7 +4861,7 @@
         <v>755</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4970,7 +4977,7 @@
         <v>760</v>
       </c>
       <c r="B7" s="3">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -5005,7 +5012,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>2</v>
@@ -5044,10 +5051,12 @@
       <c r="H9" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="I9" s="14" t="b">
+      <c r="I9" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="J9" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -5075,10 +5084,12 @@
       <c r="H10" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="I10" s="14" t="b">
+      <c r="I10" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="J10" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -5187,7 +5198,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>2</v>
@@ -5224,10 +5235,12 @@
       <c r="H15" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="I15" s="4" t="b">
+      <c r="I15" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="J15" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -5301,10 +5314,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F18" s="4">
         <v>5</v>
@@ -5394,7 +5407,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>2</v>
@@ -5429,10 +5442,12 @@
       <c r="H22" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="I22" s="14" t="b">
+      <c r="I22" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="J22" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -5473,10 +5488,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -5504,18 +5519,18 @@
         <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>836</v>
+        <v>22</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="17"/>
+      <c r="N25" s="13"/>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15">
@@ -5531,22 +5546,18 @@
         <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I26" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="17"/>
+      <c r="N26" s="13"/>
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15">
@@ -5556,16 +5567,16 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>841</v>
+        <v>798</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>62</v>
+        <v>835</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -5573,7 +5584,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="13"/>
+      <c r="N27" s="17"/>
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15">
@@ -5592,15 +5603,21 @@
         <v>72</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="J28" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="13"/>
+      <c r="N28" s="17"/>
       <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:15">
@@ -5610,15 +5627,17 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>838</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -5628,7 +5647,7 @@
       <c r="N29" s="13"/>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="4">
@@ -5641,18 +5660,18 @@
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>836</v>
+        <v>72</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="17"/>
+      <c r="N30" s="13"/>
       <c r="O30" s="12"/>
     </row>
     <row r="31" spans="1:15">
@@ -5662,69 +5681,75 @@
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>798</v>
+        <v>841</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I31" s="4" t="b">
+        <v>836</v>
+      </c>
+      <c r="F31" s="4">
         <v>1</v>
       </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="17"/>
+      <c r="N31" s="13"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" ht="15">
+    <row r="32" spans="1:15">
       <c r="A32" s="12"/>
       <c r="C32" s="4">
         <v>31</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>810</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="D32" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="14"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="19"/>
+      <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="1:15" ht="15">
+    <row r="33" spans="1:15">
       <c r="A33" s="12"/>
       <c r="C33" s="4">
         <v>32</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>811</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="D33" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="14"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="19"/>
+      <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="14.25">
       <c r="A34" s="12"/>
       <c r="C34" s="4">
         <v>33</v>
@@ -5736,18 +5761,18 @@
         <v>19</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>22</v>
+        <v>835</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="14"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="13"/>
+      <c r="N34" s="17"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="12"/>
@@ -5761,20 +5786,26 @@
         <v>19</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="J35" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="13"/>
+      <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="14.25">
       <c r="A36" s="12"/>
       <c r="C36" s="4">
         <v>35</v>
@@ -5786,91 +5817,81 @@
         <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="13"/>
+      <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="15">
       <c r="A37" s="12"/>
       <c r="C37" s="4">
         <v>36</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I37" s="14" t="b">
-        <v>1</v>
-      </c>
+      <c r="D37" s="16" t="s">
+        <v>810</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="13"/>
+      <c r="N37" s="19"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="15">
       <c r="A38" s="12"/>
       <c r="C38" s="4">
         <v>37</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
+      <c r="D38" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="13"/>
+      <c r="N38" s="19"/>
     </row>
-    <row r="39" spans="1:15" ht="15">
+    <row r="39" spans="1:15">
       <c r="A39" s="12"/>
       <c r="C39" s="4">
         <v>38</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>813</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="D39" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="19"/>
+      <c r="N39" s="13"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="12"/>
@@ -5878,41 +5899,49 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="19"/>
+      <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="1:15" ht="15">
+    <row r="41" spans="1:15">
       <c r="A41" s="12"/>
       <c r="C41" s="4">
         <v>40</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>812</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="14"/>
+      <c r="D41" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H41" s="14"/>
-      <c r="I41" s="4"/>
+      <c r="I41" s="14"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="19"/>
+      <c r="N41" s="13"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="12"/>
@@ -5926,14 +5955,20 @@
         <v>19</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="J42" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -5951,43 +5986,37 @@
         <v>19</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="14"/>
-      <c r="I43" s="4"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="15">
       <c r="A44" s="12"/>
       <c r="C44" s="4">
         <v>43</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D44" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="13"/>
+      <c r="N44" s="19"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="12"/>
@@ -5995,59 +6024,41 @@
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>798</v>
+        <v>841</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I45" s="14" t="b">
-        <v>0</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="13"/>
+      <c r="N45" s="19"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" ht="15">
       <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
       <c r="C46" s="4">
         <v>45</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I46" s="14" t="b">
-        <v>1</v>
-      </c>
+      <c r="D46" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="12"/>
+      <c r="N46" s="19"/>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="12"/>
@@ -6062,7 +6073,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>2</v>
@@ -6073,7 +6084,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="19"/>
+      <c r="N47" s="13"/>
       <c r="O47" s="12"/>
     </row>
     <row r="48" spans="1:15">
@@ -6089,7 +6100,7 @@
         <v>19</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>2</v>
@@ -6100,71 +6111,95 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="19"/>
+      <c r="N48" s="13"/>
       <c r="O48" s="12"/>
     </row>
-    <row r="49" spans="1:15" ht="15">
+    <row r="49" spans="1:15">
       <c r="A49" s="12"/>
       <c r="C49" s="4">
         <v>48</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>814</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="D49" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="19"/>
+      <c r="N49" s="13"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
       <c r="C50" s="4">
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="J50" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="12"/>
+      <c r="N50" s="13"/>
     </row>
-    <row r="51" spans="1:15" ht="15">
+    <row r="51" spans="1:15">
       <c r="A51" s="12"/>
       <c r="C51" s="4">
         <v>50</v>
       </c>
-      <c r="D51" s="16" t="s">
-        <v>817</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="4"/>
+      <c r="D51" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="J51" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="19"/>
+      <c r="N51" s="13"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="12"/>
@@ -6179,7 +6214,7 @@
         <v>19</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>2</v>
@@ -6190,7 +6225,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="13"/>
+      <c r="N52" s="19"/>
       <c r="O52" s="12"/>
     </row>
     <row r="53" spans="1:15">
@@ -6231,13 +6266,13 @@
         <v>19</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>836</v>
+        <v>22</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+      <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -6247,7 +6282,6 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
       <c r="C55" s="4">
         <v>54</v>
       </c>
@@ -6258,23 +6292,18 @@
         <v>19</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>71</v>
+        <v>835</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I55" s="14" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="13"/>
-      <c r="O55" s="12"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="12"/>
@@ -6292,38 +6321,29 @@
         <v>72</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I56" s="14" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
-      <c r="N56" s="13"/>
+      <c r="N56" s="19"/>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" ht="15">
+      <c r="A57" s="12"/>
       <c r="C57" s="4">
         <v>56</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="14"/>
+      <c r="D57" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -6331,37 +6351,42 @@
       <c r="M57" s="4"/>
       <c r="N57" s="19"/>
     </row>
-    <row r="58" spans="1:15" ht="15">
+    <row r="58" spans="1:15">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="4">
         <v>57</v>
       </c>
-      <c r="D58" s="16" t="s">
-        <v>818</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="4"/>
+      <c r="D58" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
       <c r="G58" s="4"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="4"/>
+      <c r="I58" s="14"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="19"/>
+      <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" ht="15">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="4">
         <v>58</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="E59" s="14" t="s">
+      <c r="D59" s="16" t="s">
         <v>816</v>
       </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
@@ -6370,109 +6395,145 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="19"/>
+      <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" ht="15">
+    <row r="60" spans="1:15">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="4">
         <v>59</v>
       </c>
-      <c r="D60" s="16" t="s">
-        <v>819</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="D60" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
+      <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="19"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="12"/>
       <c r="C61" s="4">
         <v>60</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="G61" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-      <c r="N61" s="19"/>
+      <c r="N61" s="13"/>
     </row>
-    <row r="62" spans="1:15" ht="15">
+    <row r="62" spans="1:15">
       <c r="C62" s="4">
         <v>61</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>820</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="D62" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H62" s="14"/>
-      <c r="I62" s="4"/>
+      <c r="I62" s="14"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-      <c r="N62" s="19"/>
+      <c r="N62" s="13"/>
     </row>
     <row r="63" spans="1:15">
       <c r="C63" s="4">
         <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="F63" s="4">
+        <v>19</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="J63" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="19"/>
+      <c r="N63" s="13"/>
     </row>
-    <row r="64" spans="1:15" ht="15">
+    <row r="64" spans="1:15">
       <c r="C64" s="4">
         <v>63</v>
       </c>
-      <c r="D64" s="16" t="s">
-        <v>821</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
+      <c r="D64" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="J64" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="19"/>
+      <c r="N64" s="13"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
       <c r="C65" s="4">
         <v>64</v>
       </c>
@@ -6483,7 +6544,7 @@
         <v>19</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>2</v>
@@ -6494,135 +6555,103 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="12"/>
+      <c r="N65" s="19"/>
     </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
+    <row r="66" spans="1:15" ht="15">
       <c r="C66" s="4">
         <v>65</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D66" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
       <c r="H66" s="14"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="12"/>
+      <c r="N66" s="19"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
       <c r="C67" s="4">
         <v>66</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>798</v>
+        <v>841</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="12"/>
+      <c r="N67" s="19"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" ht="15">
       <c r="C68" s="4">
         <v>67</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I68" s="14" t="b">
-        <v>0</v>
-      </c>
+      <c r="D68" s="16" t="s">
+        <v>818</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="13"/>
+      <c r="N68" s="19"/>
     </row>
     <row r="69" spans="1:15">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="4">
         <v>68</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>798</v>
+        <v>841</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="I69" s="14" t="b">
-        <v>0</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="13"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="12"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" ht="15">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="4">
         <v>69</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D70" s="16" t="s">
+        <v>819</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
       <c r="H70" s="14"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -6630,44 +6659,46 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="19"/>
+      <c r="O70" s="12"/>
     </row>
     <row r="71" spans="1:15">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="4">
         <v>70</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>798</v>
+        <v>841</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4"/>
       <c r="H71" s="14"/>
-      <c r="I71" s="4"/>
+      <c r="I71" s="14"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="19"/>
+      <c r="O71" s="12"/>
     </row>
     <row r="72" spans="1:15" ht="15">
       <c r="C72" s="4">
         <v>71</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="14"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="14"/>
+      <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
@@ -6678,121 +6709,158 @@
         <v>72</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="F73" s="4">
-        <v>5</v>
-      </c>
-      <c r="G73" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
+      <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="19"/>
+      <c r="N73" s="13"/>
     </row>
-    <row r="74" spans="1:15" ht="15">
+    <row r="74" spans="1:15">
       <c r="C74" s="4">
         <v>73</v>
       </c>
-      <c r="D74" s="16" t="s">
-        <v>827</v>
-      </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+      <c r="D74" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H74" s="14"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
-      <c r="N74" s="19"/>
+      <c r="N74" s="13"/>
     </row>
     <row r="75" spans="1:15">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="4">
         <v>74</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>825</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
-      <c r="N75" s="20"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="12"/>
     </row>
     <row r="76" spans="1:15">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="4">
         <v>75</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4" t="s">
-        <v>824</v>
+        <v>798</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>806</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>826</v>
-      </c>
-      <c r="J76" s="4"/>
+        <v>840</v>
+      </c>
+      <c r="J76" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
-      <c r="N76" s="20"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="12"/>
     </row>
-    <row r="77" spans="1:15" ht="15">
+    <row r="77" spans="1:15">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="4">
         <v>76</v>
       </c>
-      <c r="D77" s="16" t="s">
-        <v>805</v>
-      </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="D77" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="J77" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
-      <c r="N77" s="19"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="12"/>
     </row>
     <row r="78" spans="1:15">
       <c r="C78" s="4">
         <v>77</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="F78" s="4">
-        <v>1</v>
-      </c>
-      <c r="G78" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H78" s="14"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -6805,12 +6873,20 @@
       <c r="C79" s="4">
         <v>78</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="D79" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -6821,12 +6897,20 @@
       <c r="C80" s="4">
         <v>79</v>
       </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="D80" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -6837,57 +6921,81 @@
       <c r="C81" s="4">
         <v>80</v>
       </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="D81" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H81" s="14"/>
-      <c r="I81" s="4"/>
+      <c r="I81" s="14"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
-      <c r="N81" s="20"/>
+      <c r="N81" s="13"/>
     </row>
-    <row r="82" spans="3:14" ht="14.25">
+    <row r="82" spans="3:14">
       <c r="C82" s="4">
         <v>81</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="18"/>
+      <c r="D82" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" s="14"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
-      <c r="N82" s="20"/>
+      <c r="N82" s="19"/>
     </row>
-    <row r="83" spans="3:14">
+    <row r="83" spans="3:14" ht="15">
       <c r="C83" s="4">
         <v>82</v>
       </c>
-      <c r="D83" s="5"/>
+      <c r="D83" s="16" t="s">
+        <v>821</v>
+      </c>
       <c r="E83" s="14"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="14"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
+      <c r="J83" s="14"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
-      <c r="N83" s="20"/>
+      <c r="N83" s="19"/>
     </row>
     <row r="84" spans="3:14">
       <c r="C84" s="4">
         <v>83</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="4"/>
+      <c r="D84" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="F84" s="4">
+        <v>5</v>
+      </c>
       <c r="G84" s="4"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
@@ -6895,13 +7003,15 @@
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
-      <c r="N84" s="13"/>
+      <c r="N84" s="19"/>
     </row>
-    <row r="85" spans="3:14">
+    <row r="85" spans="3:14" ht="15">
       <c r="C85" s="4">
         <v>84</v>
       </c>
-      <c r="D85" s="5"/>
+      <c r="D85" s="16" t="s">
+        <v>826</v>
+      </c>
       <c r="E85" s="14"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -6913,9 +7023,209 @@
       <c r="M85" s="4"/>
       <c r="N85" s="19"/>
     </row>
+    <row r="86" spans="3:14">
+      <c r="C86" s="4">
+        <v>85</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="20"/>
+    </row>
+    <row r="87" spans="3:14">
+      <c r="C87" s="4">
+        <v>86</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="20"/>
+    </row>
+    <row r="88" spans="3:14" ht="15">
+      <c r="C88" s="4">
+        <v>87</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="E88" s="14"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="19"/>
+    </row>
+    <row r="89" spans="3:14">
+      <c r="C89" s="4">
+        <v>88</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="19"/>
+    </row>
+    <row r="90" spans="3:14">
+      <c r="C90" s="4">
+        <v>89</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="13"/>
+    </row>
+    <row r="91" spans="3:14">
+      <c r="C91" s="4">
+        <v>90</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="13"/>
+    </row>
+    <row r="92" spans="3:14">
+      <c r="C92" s="4">
+        <v>91</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="20"/>
+    </row>
+    <row r="93" spans="3:14" ht="14.25">
+      <c r="C93" s="4">
+        <v>92</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="20"/>
+    </row>
+    <row r="94" spans="3:14">
+      <c r="C94" s="4">
+        <v>93</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="20"/>
+    </row>
+    <row r="95" spans="3:14">
+      <c r="C95" s="4">
+        <v>94</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="13"/>
+    </row>
+    <row r="96" spans="3:14">
+      <c r="C96" s="4">
+        <v>95</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="19"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N85">
+  <conditionalFormatting sqref="N2:N96">
     <cfRule type="cellIs" dxfId="1" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6924,16 +7234,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D78:D80 D65:D71 D52:D57 D34:D38 D42:D48 D3:D4 D8:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89:D91 D60:D65 D39:D43 D73:D82 D3:D4 D47:D56 D8:D36">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E77:E85 E2:E74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88:E96 E2:E85">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G96">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F96">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -28338,37 +28648,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST1336_ShowExpandedTopFrameAndShowExpendedBottomFrame.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1336_ShowExpandedTopFrameAndShowExpendedBottomFrame.xlsx
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7318" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7319" uniqueCount="845">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3785,6 +3785,10 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4770,8 +4774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4952,7 +4956,7 @@
         <v>759</v>
       </c>
       <c r="B6" s="7">
-        <v>41106</v>
+        <v>41445</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4999,9 +5003,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>844</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -5028,11 +5032,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>763</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -5064,8 +5066,12 @@
       <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>763</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -5097,10 +5103,8 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -5127,7 +5131,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="4">
@@ -5156,7 +5160,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="4">
@@ -5185,7 +5189,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="4">
@@ -5214,7 +5218,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="4">
@@ -5249,7 +5253,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="4">
@@ -5277,10 +5281,10 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="11" t="s">
-        <v>770</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5308,7 +5312,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5333,11 +5337,9 @@
       <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>772</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5365,9 +5367,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B20" s="11"/>
+        <v>772</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>763</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5394,7 +5398,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="4">
@@ -5422,8 +5426,10 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5507,8 +5513,8 @@
       <c r="O24" s="12"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="4">
         <v>24</v>
       </c>
@@ -5701,6 +5707,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="4">
         <v>31</v>
       </c>
@@ -6062,7 +6069,6 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
       <c r="C47" s="4">
         <v>46</v>
       </c>
@@ -6116,6 +6122,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="4">
         <v>48</v>
       </c>
@@ -6203,7 +6210,6 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
       <c r="C52" s="4">
         <v>51</v>
       </c>
@@ -6230,6 +6236,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="4">
         <v>52</v>
       </c>
@@ -6255,7 +6262,6 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
       <c r="C54" s="4">
         <v>53</v>
       </c>
@@ -6282,6 +6288,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="4">
         <v>54</v>
       </c>
@@ -6307,7 +6314,6 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
       <c r="C56" s="4">
         <v>55</v>
       </c>
@@ -6334,6 +6340,7 @@
     </row>
     <row r="57" spans="1:15" ht="15">
       <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="4">
         <v>56</v>
       </c>
@@ -6353,7 +6360,6 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
       <c r="C58" s="4">
         <v>57</v>
       </c>
@@ -6425,6 +6431,8 @@
       <c r="O60" s="12"/>
     </row>
     <row r="61" spans="1:15">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="4">
         <v>60</v>
       </c>
@@ -6533,7 +6541,6 @@
       <c r="N64" s="13"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="12"/>
       <c r="C65" s="4">
         <v>64</v>
       </c>
@@ -6558,6 +6565,7 @@
       <c r="N65" s="19"/>
     </row>
     <row r="66" spans="1:15" ht="15">
+      <c r="A66" s="12"/>
       <c r="C66" s="4">
         <v>65</v>
       </c>
@@ -6616,8 +6624,6 @@
       <c r="N68" s="19"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
       <c r="C69" s="4">
         <v>68</v>
       </c>
@@ -6687,6 +6693,8 @@
       <c r="O71" s="12"/>
     </row>
     <row r="72" spans="1:15" ht="15">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="4">
         <v>71</v>
       </c>
@@ -6753,8 +6761,6 @@
       <c r="N74" s="13"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
       <c r="C75" s="4">
         <v>74</v>
       </c>
@@ -6846,6 +6852,8 @@
       <c r="O77" s="12"/>
     </row>
     <row r="78" spans="1:15">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="4">
         <v>77</v>
       </c>
